--- a/pred_ohlcv/54_21/2019-11-02 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 CMT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>365241.3210000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>303753.9403000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -730,7 +730,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>350415.42065</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>350415.42065</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>362959.6648500001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>442850.1029500001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>375159.9923500001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>375159.9923500001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>449274.6132500001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>348319.95615</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>254121.36155</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>254121.36155</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>349694.91475</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>349054.63285</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>216687.10645</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>216687.10645</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>617185.31775</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>375898.44695</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>505115.16045</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>507142.91195</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>987190.3952309524</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>512980.2174309524</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>519947.5554309524</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>510769.0248309524</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>510769.0248309524</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-380576.2155690476</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-380576.2155690476</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1665181.546893272</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1664181.546893272</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1664181.546893272</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1318327.610593272</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1318327.610593272</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-928045.3107626936</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 CMT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>365241.3210000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>303753.9403000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -730,7 +730,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>350415.42065</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>350415.42065</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>362959.6648500001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>442850.1029500001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>375159.9923500001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>375159.9923500001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>449274.6132500001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>348319.95615</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>254121.36155</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>254121.36155</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>349694.91475</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>349054.63285</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>216687.10645</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>216687.10645</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>617185.31775</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>987190.3952309524</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>512980.2174309524</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>519947.5554309524</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>510769.0248309524</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>510769.0248309524</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-380576.2155690476</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-380576.2155690476</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1664181.546893272</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1664181.546893272</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1318327.610593272</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1318327.610593272</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1316993.865993272</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1319905.864993272</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1295918.966693272</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1287211.034293272</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1366195.581293272</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1366195.581293272</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1366195.581293272</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1633550.758493272</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1233550.758493272</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1213350.758493272</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1247353.628993272</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1247353.628993272</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1242070.486093272</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1242070.486093272</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-981070.486093272</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-983987.098693272</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-983987.098693272</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-983987.098693272</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-953987.098693272</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-928045.3107626936</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
